--- a/tests/NewApiBundle/Resources/ImportWithWrongDateFormat.xlsx
+++ b/tests/NewApiBundle/Resources/ImportWithWrongDateFormat.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t xml:space="preserve">Address street</t>
   </si>
@@ -229,16 +229,10 @@
     <t xml:space="preserve">Donor#VillageNameRound#</t>
   </si>
   <si>
-    <t xml:space="preserve">Aleppo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jebel Saman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daret Azza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kafrantin</t>
+    <t xml:space="preserve">Al-Hasakeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Berij</t>
   </si>
   <si>
     <t xml:space="preserve">صبحي </t>
@@ -380,7 +374,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -421,10 +415,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -433,7 +423,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -511,7 +501,7 @@
   <dimension ref="A1:AY1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
+      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,30 +837,30 @@
         <v>68</v>
       </c>
       <c r="N3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="X3" s="3" t="n">
         <v>19331</v>
@@ -885,39 +875,39 @@
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
       <c r="AH3" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI3" s="8" t="n">
         <v>20002</v>
       </c>
-      <c r="AJ3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="10" t="n">
+      <c r="AJ3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AO3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="10" t="n">
+      <c r="AO3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AT3" s="8"/>
@@ -926,38 +916,38 @@
       <c r="AW3" s="8"/>
       <c r="AX3" s="8"/>
       <c r="AY3" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M4" s="8" t="s">
         <v>68</v>
       </c>
       <c r="N4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="R4" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X4" s="3" t="n">
         <v>22618</v>
@@ -972,39 +962,39 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI4" s="8" t="n">
         <v>2100099914</v>
       </c>
-      <c r="AJ4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="10" t="n">
+      <c r="AJ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AN4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="10" t="n">
+      <c r="AN4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="10" t="n">
+      <c r="AR4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AT4" s="8"/>
@@ -1013,7 +1003,7 @@
       <c r="AW4" s="8"/>
       <c r="AX4" s="8"/>
       <c r="AY4" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,30 +1011,30 @@
         <v>68</v>
       </c>
       <c r="N5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q5" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X5" s="3" t="n">
         <v>32114</v>
@@ -1059,39 +1049,39 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI5" s="8" t="n">
         <v>2100099946</v>
       </c>
-      <c r="AJ5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="10" t="n">
+      <c r="AJ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AN5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="10" t="n">
+      <c r="AN5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AR5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="10" t="n">
+      <c r="AR5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AT5" s="8"/>
@@ -1100,7 +1090,7 @@
       <c r="AW5" s="8"/>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,30 +1098,30 @@
         <v>68</v>
       </c>
       <c r="N6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X6" s="3" t="n">
         <v>23348</v>
@@ -1146,39 +1136,39 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI6" s="8" t="n">
         <v>2100099934</v>
       </c>
-      <c r="AJ6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="10" t="n">
+      <c r="AJ6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AL6" s="10" t="n">
+      <c r="AL6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AM6" s="10" t="n">
+      <c r="AM6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AN6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="10" t="n">
+      <c r="AN6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AP6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="10" t="n">
+      <c r="AP6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AR6" s="10" t="n">
+      <c r="AR6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AS6" s="10" t="n">
+      <c r="AS6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AT6" s="8"/>
@@ -1187,7 +1177,7 @@
       <c r="AW6" s="8"/>
       <c r="AX6" s="8"/>
       <c r="AY6" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,30 +1185,30 @@
         <v>68</v>
       </c>
       <c r="N7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q7" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X7" s="3" t="n">
         <v>33575</v>
@@ -1233,39 +1223,39 @@
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI7" s="8" t="n">
         <v>2100099998</v>
       </c>
-      <c r="AJ7" s="10" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AK7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="10" t="n">
+      <c r="AK7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AM7" s="10" t="n">
+      <c r="AM7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AN7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="10" t="n">
+      <c r="AN7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AQ7" s="10" t="n">
+      <c r="AQ7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AR7" s="10" t="n">
+      <c r="AR7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AS7" s="10" t="n">
+      <c r="AS7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AT7" s="8"/>
@@ -1274,7 +1264,7 @@
       <c r="AW7" s="8"/>
       <c r="AX7" s="8"/>
       <c r="AY7" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
